--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="163">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -818,17 +818,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム日付</t>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>yyyyMMdd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"0"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -890,19 +879,6 @@
     <t>(バックアップフォルダ：web.configのJISSEKI_CSV_BKに指定されたフォルダ)</t>
   </si>
   <si>
-    <t>項目数が3以外の場合エラーとする。</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>利用日(実車日)の列に値が無い場合はエラーとする。</t>
     <rPh sb="0" eb="3">
       <t>リヨウビ</t>
@@ -952,38 +928,6 @@
   <si>
     <t>a)</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>(1)のチェックでエラーが無かった場合は、画面で指定されたタクシー会社と</t>
-    <rPh sb="13" eb="14">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CSVデータのタクチケ番号をKeyとして、タクチケ発行テーブルを更新する。</t>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>更新時エラーが発生した場合は、ログテーブルにエラーメッセージを出力</t>
@@ -1100,10 +1044,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>b)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タクチケ発行テーブルの講演会番号+参加者IDで交通宿泊テーブルの</t>
     <rPh sb="4" eb="6">
       <t>ハッコウ</t>
@@ -1133,10 +1073,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(a)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タクチケ発行テーブルの利用日と金額がセットされているのにも</t>
     <rPh sb="4" eb="6">
       <t>ハッコウ</t>
@@ -1164,10 +1100,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(b)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>交通宿泊テーブルの利用日とタクチケ発行テーブルの利用日が</t>
     <rPh sb="0" eb="2">
       <t>コウツウ</t>
@@ -1222,6 +1154,174 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目数が4以外の場合エラーとする。</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクシー会社の列に値が無い場合はエラーとする。</t>
+    <rPh sb="4" eb="6">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異なる場合はエラーとする。</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ番号をKeyとして、タクチケ発行テーブルを更新する。</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実績データCSVのタクシー会社と画面で指定されたタクシー会社が</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1)のチェックでエラーが無かった場合は、実績データCSVのタクシー会社と</t>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>b)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ発行テーブルに該当レコードが無い場合はエラーとして</t>
+    <rPh sb="4" eb="6">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログテーブルにエラーメッセージを出力する。</t>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通宿泊テーブルに該当レコードがある場合</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(a)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(b)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通宿泊テーブルに該当レコードが無い場合はエラーとして</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1230,7 +1330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1851,6 +1951,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1876,15 +1985,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2848,16 +2948,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
@@ -2919,7 +3019,7 @@
       <c r="AY1" s="69"/>
       <c r="AZ1" s="70"/>
     </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -2987,7 +3087,7 @@
       <c r="AY2" s="40"/>
       <c r="AZ2" s="40"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -3049,16 +3149,16 @@
       <c r="AY3" s="40"/>
       <c r="AZ3" s="40"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
@@ -3120,7 +3220,7 @@
       <c r="AY7" s="57"/>
       <c r="AZ7" s="58"/>
     </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3280,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3234,7 +3334,7 @@
       <c r="AY10" s="2"/>
       <c r="AZ10" s="3"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3288,7 +3388,7 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="3"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3340,7 +3440,7 @@
       <c r="AY12" s="2"/>
       <c r="AZ12" s="3"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3393,7 +3493,7 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3447,7 +3547,7 @@
       <c r="AY14" s="2"/>
       <c r="AZ14" s="3"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3500,7 +3600,7 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="3"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3549,7 +3649,7 @@
       <c r="AY16" s="2"/>
       <c r="AZ16" s="3"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3599,7 +3699,7 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="3"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3649,7 +3749,7 @@
       <c r="AY18" s="2"/>
       <c r="AZ18" s="3"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3698,7 +3798,7 @@
       <c r="AY19" s="2"/>
       <c r="AZ19" s="3"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3746,7 +3846,7 @@
       <c r="AY20" s="2"/>
       <c r="AZ20" s="3"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3793,7 +3893,7 @@
       <c r="AY21" s="2"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3842,7 +3942,7 @@
       <c r="AY22" s="2"/>
       <c r="AZ22" s="3"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3892,7 +3992,7 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="3"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3945,7 +4045,7 @@
       <c r="AY24" s="2"/>
       <c r="AZ24" s="3"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3998,7 +4098,7 @@
       <c r="AY25" s="2"/>
       <c r="AZ25" s="3"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4051,7 +4151,7 @@
       <c r="AY26" s="2"/>
       <c r="AZ26" s="3"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4104,7 +4204,7 @@
       <c r="AY27" s="2"/>
       <c r="AZ27" s="3"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4157,7 +4257,7 @@
       <c r="AY28" s="2"/>
       <c r="AZ28" s="3"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4211,7 +4311,7 @@
       <c r="AY29" s="2"/>
       <c r="AZ29" s="3"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4264,7 +4364,7 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="3"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4316,7 +4416,7 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="3"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4367,7 +4467,7 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="3"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4418,7 +4518,7 @@
       <c r="AY33" s="2"/>
       <c r="AZ33" s="3"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4469,7 +4569,7 @@
       <c r="AY34" s="2"/>
       <c r="AZ34" s="3"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4523,7 +4623,7 @@
       <c r="AY35" s="2"/>
       <c r="AZ35" s="3"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4577,7 +4677,7 @@
       <c r="AY36" s="2"/>
       <c r="AZ36" s="3"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4630,7 +4730,7 @@
       <c r="AY37" s="2"/>
       <c r="AZ37" s="3"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4731,12 +4831,12 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
@@ -4798,7 +4898,7 @@
       <c r="AY1" s="69"/>
       <c r="AZ1" s="70"/>
     </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4866,7 +4966,7 @@
       <c r="AY2" s="40"/>
       <c r="AZ2" s="40"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -4928,16 +5028,16 @@
       <c r="AY3" s="40"/>
       <c r="AZ3" s="40"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
@@ -4999,7 +5099,7 @@
       <c r="AY7" s="57"/>
       <c r="AZ7" s="58"/>
     </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -5059,7 +5159,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5113,7 +5213,7 @@
       <c r="AY10" s="2"/>
       <c r="AZ10" s="3"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5171,7 +5271,7 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="3"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5224,7 +5324,7 @@
       <c r="AY12" s="2"/>
       <c r="AZ12" s="3"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5277,7 +5377,7 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5323,7 +5423,7 @@
       <c r="AY14" s="2"/>
       <c r="AZ14" s="3"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5339,7 +5439,7 @@
         <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -5375,7 +5475,7 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="3"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5412,7 +5512,7 @@
       <c r="AY16" s="2"/>
       <c r="AZ16" s="3"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5426,7 +5526,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
       <c r="M17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N17" s="2"/>
       <c r="Q17" s="2"/>
@@ -5464,7 +5564,7 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="3"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5516,7 +5616,7 @@
       <c r="AY18" s="2"/>
       <c r="AZ18" s="3"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5563,7 +5663,7 @@
       <c r="AY19" s="2"/>
       <c r="AZ19" s="3"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5615,7 +5715,7 @@
       <c r="AY20" s="2"/>
       <c r="AZ20" s="3"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5666,7 +5766,7 @@
       <c r="AY21" s="2"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5719,7 +5819,7 @@
       <c r="AY22" s="2"/>
       <c r="AZ22" s="3"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5766,7 +5866,7 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="3"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5823,7 +5923,7 @@
       <c r="AY24" s="2"/>
       <c r="AZ24" s="3"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5874,7 +5974,7 @@
       <c r="AY25" s="2"/>
       <c r="AZ25" s="3"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5888,7 +5988,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="M26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R26" s="2"/>
       <c r="V26" s="2"/>
@@ -5923,7 +6023,7 @@
       <c r="AY26" s="2"/>
       <c r="AZ26" s="3"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5974,7 +6074,7 @@
       <c r="AY27" s="2"/>
       <c r="AZ27" s="3"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6025,7 +6125,7 @@
       <c r="AY28" s="2"/>
       <c r="AZ28" s="3"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6079,7 +6179,7 @@
       <c r="AY29" s="2"/>
       <c r="AZ29" s="3"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6132,7 +6232,7 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="3"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6184,7 +6284,7 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="3"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6235,7 +6335,7 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="3"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6286,7 +6386,7 @@
       <c r="AY33" s="2"/>
       <c r="AZ33" s="3"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6337,7 +6437,7 @@
       <c r="AY34" s="2"/>
       <c r="AZ34" s="3"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6391,7 +6491,7 @@
       <c r="AY35" s="2"/>
       <c r="AZ35" s="3"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6445,7 +6545,7 @@
       <c r="AY36" s="2"/>
       <c r="AZ36" s="3"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6498,7 +6598,7 @@
       <c r="AY37" s="2"/>
       <c r="AZ37" s="3"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -6593,18 +6693,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ38"/>
+  <dimension ref="A1:AZ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="15" max="15" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
@@ -6666,7 +6766,7 @@
       <c r="AY1" s="69"/>
       <c r="AZ1" s="70"/>
     </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -6734,7 +6834,7 @@
       <c r="AY2" s="40"/>
       <c r="AZ2" s="40"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -6796,16 +6896,16 @@
       <c r="AY3" s="40"/>
       <c r="AZ3" s="40"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
@@ -6867,7 +6967,7 @@
       <c r="AY7" s="57"/>
       <c r="AZ7" s="58"/>
     </row>
-    <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -6927,7 +7027,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6981,7 +7081,7 @@
       <c r="AY10" s="2"/>
       <c r="AZ10" s="3"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6997,7 +7097,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -7039,7 +7139,7 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="3"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7093,7 +7193,7 @@
       <c r="AY12" s="2"/>
       <c r="AZ12" s="3"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7144,7 +7244,7 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7161,7 +7261,7 @@
         <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -7180,7 +7280,7 @@
       <c r="AY14" s="2"/>
       <c r="AZ14" s="3"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7194,10 +7294,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
       <c r="O15" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -7216,7 +7316,7 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="3"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7230,10 +7330,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
@@ -7252,7 +7352,7 @@
       <c r="AY16" s="2"/>
       <c r="AZ16" s="3"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7266,10 +7366,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
       <c r="O17" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -7295,7 +7395,7 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="3"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7308,11 +7408,11 @@
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="O18" t="s">
-        <v>133</v>
+        <v>120</v>
+      </c>
+      <c r="P18" t="s">
+        <v>128</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -7341,7 +7441,7 @@
       <c r="AY18" s="2"/>
       <c r="AZ18" s="3"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7354,10 +7454,11 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
-        <v>134</v>
+      <c r="O19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" t="s">
+        <v>153</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -7386,7 +7487,7 @@
       <c r="AY19" s="2"/>
       <c r="AZ19" s="3"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7399,12 +7500,9 @@
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="P20" t="s">
+        <v>151</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -7433,7 +7531,7 @@
       <c r="AY20" s="2"/>
       <c r="AZ20" s="3"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7446,12 +7544,13 @@
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
+      <c r="M21" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="O21" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>145</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -7478,7 +7577,7 @@
       <c r="AY21" s="2"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7491,15 +7590,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
-      <c r="Q22" t="s">
-        <v>146</v>
-      </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -7526,7 +7621,7 @@
       <c r="AY22" s="2"/>
       <c r="AZ22" s="3"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -7539,12 +7634,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
-      <c r="P23" t="s">
-        <v>147</v>
-      </c>
-      <c r="R23" t="s">
-        <v>148</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -7576,7 +7666,7 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="3"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -7589,10 +7679,13 @@
       <c r="J24" s="3"/>
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
-      <c r="N24" s="11"/>
-      <c r="R24" t="s">
-        <v>150</v>
-      </c>
+      <c r="O24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -7619,7 +7712,7 @@
       <c r="AY24" s="2"/>
       <c r="AZ24" s="3"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -7632,10 +7725,14 @@
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
-      <c r="N25" s="11"/>
-      <c r="R25" t="s">
-        <v>149</v>
-      </c>
+      <c r="Q25" t="s">
+        <v>140</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -7662,7 +7759,7 @@
       <c r="AY25" s="2"/>
       <c r="AZ25" s="3"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -7675,13 +7772,16 @@
       <c r="J26" s="3"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
-      <c r="N26" s="11"/>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="R26" t="s">
-        <v>152</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -7708,7 +7808,7 @@
       <c r="AY26" s="2"/>
       <c r="AZ26" s="3"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -7721,12 +7821,13 @@
       <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="4"/>
       <c r="N27" s="11"/>
+      <c r="Q27" t="s">
+        <v>158</v>
+      </c>
       <c r="R27" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>141</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -7755,7 +7856,7 @@
       <c r="AY27" s="2"/>
       <c r="AZ27" s="3"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -7768,12 +7869,11 @@
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
-      <c r="O28" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>154</v>
-      </c>
+      <c r="N28" s="11"/>
+      <c r="R28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -7802,7 +7902,7 @@
       <c r="AY28" s="2"/>
       <c r="AZ28" s="3"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -7815,15 +7915,10 @@
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
-      <c r="Q29" t="s">
-        <v>155</v>
-      </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="N29" s="11"/>
+      <c r="R29" t="s">
+        <v>142</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -7852,7 +7947,7 @@
       <c r="AY29" s="2"/>
       <c r="AZ29" s="3"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -7865,11 +7960,14 @@
       <c r="J30" s="3"/>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="11"/>
+      <c r="Q30" t="s">
+        <v>158</v>
+      </c>
+      <c r="R30" t="s">
+        <v>144</v>
+      </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -7899,7 +7997,7 @@
       <c r="AY30" s="2"/>
       <c r="AZ30" s="3"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7912,14 +8010,9 @@
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
-      <c r="O31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="R31" t="s">
+        <v>145</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -7949,7 +8042,7 @@
       <c r="AY31" s="2"/>
       <c r="AZ31" s="3"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7962,10 +8055,12 @@
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
-      <c r="O32" t="s">
-        <v>136</v>
-      </c>
-      <c r="T32" s="2"/>
+      <c r="Q32" t="s">
+        <v>158</v>
+      </c>
+      <c r="R32" t="s">
+        <v>146</v>
+      </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -7999,7 +8094,7 @@
       <c r="AY32" s="2"/>
       <c r="AZ32" s="3"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8012,10 +8107,9 @@
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="R33" t="s">
+        <v>147</v>
+      </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -8050,7 +8144,7 @@
       <c r="AY33" s="2"/>
       <c r="AZ33" s="3"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8062,12 +8156,13 @@
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="P34" t="s">
+        <v>161</v>
+      </c>
+      <c r="R34" t="s">
+        <v>162</v>
+      </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -8102,7 +8197,7 @@
       <c r="AY34" s="2"/>
       <c r="AZ34" s="3"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8115,10 +8210,9 @@
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
+      <c r="R35" t="s">
+        <v>157</v>
+      </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -8153,7 +8247,7 @@
       <c r="AY35" s="2"/>
       <c r="AZ35" s="3"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8166,13 +8260,6 @@
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -8207,7 +8294,7 @@
       <c r="AY36" s="2"/>
       <c r="AZ36" s="3"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8219,13 +8306,13 @@
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="L37" s="4"/>
+      <c r="O37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>156</v>
+      </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -8260,59 +8347,268 @@
       <c r="AY37" s="2"/>
       <c r="AZ37" s="3"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="7"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="7"/>
+    <row r="38" spans="1:52">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="Q38" t="s">
+        <v>157</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="3"/>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="3"/>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="3"/>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s">
+        <v>131</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="3"/>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="6"/>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="6"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="6"/>
+      <c r="AZ42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -8358,16 +8654,16 @@
   <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:Q28"/>
+      <selection activeCell="AO28" sqref="AO28:AZ28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
     <col min="2" max="16384" width="2.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
@@ -8429,7 +8725,7 @@
       <c r="AY1" s="69"/>
       <c r="AZ1" s="70"/>
     </row>
-    <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -8497,7 +8793,7 @@
       <c r="AY2" s="40"/>
       <c r="AZ2" s="40"/>
     </row>
-    <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
       <c r="A3" s="65"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -8559,25 +8855,25 @@
       <c r="AY3" s="40"/>
       <c r="AZ3" s="40"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="8" spans="1:52" ht="14.25" thickBot="1">
       <c r="A8" s="71" t="s">
         <v>55</v>
       </c>
@@ -8645,7 +8941,7 @@
       <c r="AY8" s="78"/>
       <c r="AZ8" s="79"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
         <v>60</v>
       </c>
@@ -8713,7 +9009,7 @@
       <c r="AY9" s="24"/>
       <c r="AZ9" s="25"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
@@ -8771,7 +9067,7 @@
       <c r="AY10" s="36"/>
       <c r="AZ10" s="37"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="38">
         <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
@@ -8842,7 +9138,7 @@
       <c r="AY11" s="81"/>
       <c r="AZ11" s="82"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8909,7 +9205,7 @@
       <c r="AY12" s="91"/>
       <c r="AZ12" s="92"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8978,7 +9274,7 @@
       <c r="AY13" s="91"/>
       <c r="AZ13" s="92"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9047,7 +9343,7 @@
       <c r="AY14" s="91"/>
       <c r="AZ14" s="92"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9116,7 +9412,7 @@
       <c r="AY15" s="91"/>
       <c r="AZ15" s="92"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9185,7 +9481,7 @@
       <c r="AY16" s="91"/>
       <c r="AZ16" s="92"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9211,7 +9507,7 @@
       <c r="P17" s="84"/>
       <c r="Q17" s="84"/>
       <c r="R17" s="80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S17" s="85"/>
       <c r="T17" s="86"/>
@@ -9254,7 +9550,7 @@
       <c r="AY17" s="91"/>
       <c r="AZ17" s="92"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9280,7 +9576,7 @@
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
       <c r="R18" s="80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S18" s="85"/>
       <c r="T18" s="86"/>
@@ -9291,7 +9587,7 @@
       <c r="W18" s="88"/>
       <c r="X18" s="89"/>
       <c r="Y18" s="83" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Z18" s="84"/>
       <c r="AA18" s="84"/>
@@ -9323,7 +9619,7 @@
       <c r="AY18" s="91"/>
       <c r="AZ18" s="92"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9349,7 +9645,7 @@
       <c r="P19" s="84"/>
       <c r="Q19" s="84"/>
       <c r="R19" s="80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S19" s="85"/>
       <c r="T19" s="86"/>
@@ -9380,7 +9676,7 @@
       <c r="AM19" s="84"/>
       <c r="AN19" s="84"/>
       <c r="AO19" s="90" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AP19" s="91"/>
       <c r="AQ19" s="91"/>
@@ -9394,7 +9690,7 @@
       <c r="AY19" s="91"/>
       <c r="AZ19" s="92"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9420,7 +9716,7 @@
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="80" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S20" s="85"/>
       <c r="T20" s="86"/>
@@ -9451,7 +9747,7 @@
       <c r="AM20" s="84"/>
       <c r="AN20" s="84"/>
       <c r="AO20" s="90" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AP20" s="91"/>
       <c r="AQ20" s="91"/>
@@ -9465,78 +9761,78 @@
       <c r="AY20" s="91"/>
       <c r="AZ20" s="92"/>
     </row>
-    <row r="21" spans="1:52" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" ht="72.75" customHeight="1">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="94" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96" t="s">
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="97"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="99" t="s">
+      <c r="S21" s="100"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="94" t="s">
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="94" t="s">
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="104"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="96"/>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9605,7 +9901,7 @@
       <c r="AY22" s="91"/>
       <c r="AZ22" s="92"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9662,7 +9958,7 @@
       <c r="AM23" s="84"/>
       <c r="AN23" s="84"/>
       <c r="AO23" s="90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP23" s="91"/>
       <c r="AQ23" s="91"/>
@@ -9676,7 +9972,7 @@
       <c r="AY23" s="91"/>
       <c r="AZ23" s="92"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9713,7 +10009,7 @@
       <c r="W24" s="88"/>
       <c r="X24" s="89"/>
       <c r="Y24" s="83" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Z24" s="84"/>
       <c r="AA24" s="84"/>
@@ -9732,9 +10028,7 @@
       <c r="AL24" s="84"/>
       <c r="AM24" s="84"/>
       <c r="AN24" s="84"/>
-      <c r="AO24" s="90" t="s">
-        <v>120</v>
-      </c>
+      <c r="AO24" s="90"/>
       <c r="AP24" s="91"/>
       <c r="AQ24" s="91"/>
       <c r="AR24" s="91"/>
@@ -9747,7 +10041,7 @@
       <c r="AY24" s="91"/>
       <c r="AZ24" s="92"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9816,7 +10110,7 @@
       <c r="AY25" s="91"/>
       <c r="AZ25" s="92"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9887,7 +10181,7 @@
       <c r="AY26" s="91"/>
       <c r="AZ26" s="92"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9958,7 +10252,7 @@
       <c r="AY27" s="91"/>
       <c r="AZ27" s="92"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10029,7 +10323,7 @@
       <c r="AY28" s="91"/>
       <c r="AZ28" s="92"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10100,7 +10394,7 @@
       <c r="AY29" s="91"/>
       <c r="AZ29" s="92"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10157,7 +10451,7 @@
       <c r="AY30" s="91"/>
       <c r="AZ30" s="92"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10214,7 +10508,7 @@
       <c r="AY31" s="91"/>
       <c r="AZ31" s="92"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10271,7 +10565,7 @@
       <c r="AY32" s="91"/>
       <c r="AZ32" s="92"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10328,7 +10622,7 @@
       <c r="AY33" s="91"/>
       <c r="AZ33" s="92"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10385,7 +10679,7 @@
       <c r="AY34" s="91"/>
       <c r="AZ34" s="92"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10442,7 +10736,7 @@
       <c r="AY35" s="91"/>
       <c r="AZ35" s="92"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10655,6 +10949,11 @@
     <mergeCell ref="U15:X15"/>
     <mergeCell ref="Y15:AF15"/>
     <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="AO13:AZ13"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="J14:Q14"/>
@@ -10669,11 +10968,6 @@
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="Y13:AF13"/>
     <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
     <mergeCell ref="AO11:AZ11"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="J12:Q12"/>
@@ -10688,11 +10982,6 @@
     <mergeCell ref="U11:X11"/>
     <mergeCell ref="Y11:AF11"/>
     <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
@@ -10712,6 +11001,11 @@
     <mergeCell ref="AU2:AZ2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="165">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -1323,6 +1323,17 @@
     <rPh sb="18" eb="20">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム年月</t>
+    <rPh sb="4" eb="6">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yyyyMM</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1774,58 +1785,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1871,6 +1830,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1880,41 +1866,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1923,6 +1907,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1938,18 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1985,6 +1960,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2948,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
@@ -2958,196 +2969,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -3159,66 +3170,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -4786,6 +4797,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4802,16 +4823,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4837,196 +4848,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5038,66 +5049,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6654,6 +6665,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6670,16 +6691,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6705,196 +6716,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6906,66 +6917,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -8612,16 +8623,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8638,6 +8639,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8653,8 +8664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AO28" sqref="AO28:AZ28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AO26" sqref="AO26:AZ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8664,196 +8675,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8874,72 +8885,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="74" t="s">
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="71" t="s">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="72"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="77" t="s">
+      <c r="W8" s="97"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="71" t="s">
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="77" t="s">
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="79"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="104"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
@@ -9072,1883 +9083,1764 @@
         <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="83" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="80" t="s">
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="85"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="87" t="s">
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="83" t="s">
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="83" t="s">
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="80" t="s">
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="81"/>
-      <c r="AZ11" s="82"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="95"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="83" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="80" t="s">
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="83" t="s">
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="83" t="s">
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="91"/>
-      <c r="AQ12" s="91"/>
-      <c r="AR12" s="91"/>
-      <c r="AS12" s="91"/>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="91"/>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="92"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="73"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="83" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="80" t="s">
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="85"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="83" t="s">
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="83" t="s">
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
       <c r="AO13" s="93"/>
-      <c r="AP13" s="91"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="92"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="73"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="83" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="80" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="87" t="s">
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="83" t="s">
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="83" t="s">
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="91"/>
-      <c r="AR14" s="91"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="91"/>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="92"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="73"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="83" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="80" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="85"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87" t="s">
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="83" t="s">
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="83" t="s">
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="73"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="83" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="80" t="s">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="85"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="87" t="s">
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="83" t="s">
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="83" t="s">
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="91"/>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="91"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="92"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="73"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="83" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="80" t="s">
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="87" t="s">
+      <c r="S17" s="77"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="83" t="s">
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="83" t="s">
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="92"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="73"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="83" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="80" t="s">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="S18" s="85"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="87" t="s">
+      <c r="S18" s="77"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="83" t="s">
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="83" t="s">
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="91"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="91"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="92"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="73"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="83" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="80" t="s">
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87" t="s">
+      <c r="S19" s="77"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="83" t="s">
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="83" t="s">
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="90" t="s">
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="92"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="73"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="83" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="80" t="s">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="S20" s="85"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="87" t="s">
+      <c r="S20" s="77"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="83" t="s">
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="83" t="s">
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="90" t="s">
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="91"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="92"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="73"/>
     </row>
     <row r="21" spans="1:52" ht="72.75" customHeight="1">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="97" t="s">
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="99" t="s">
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="100"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102" t="s">
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="97" t="s">
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="97" t="s">
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="94" t="s">
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="96"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="84"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="83" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="80" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="87" t="s">
+      <c r="S22" s="77"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="83" t="s">
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="83" t="s">
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="92"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="73"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="83" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="80" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S23" s="85"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="87" t="s">
+      <c r="S23" s="77"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="83" t="s">
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="83" t="s">
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="84"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="84"/>
-      <c r="AO23" s="90" t="s">
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="91"/>
-      <c r="AR23" s="91"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="91"/>
-      <c r="AU23" s="91"/>
-      <c r="AV23" s="91"/>
-      <c r="AW23" s="91"/>
-      <c r="AX23" s="91"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="92"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="73"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="83" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="80" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="87" t="s">
+      <c r="S24" s="77"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="83" t="s">
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="83" t="s">
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91"/>
-      <c r="AR24" s="91"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="91"/>
-      <c r="AV24" s="91"/>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="91"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="92"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="73"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="83" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="80" t="s">
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="87" t="s">
+      <c r="S25" s="77"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="83" t="s">
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="91"/>
-      <c r="AQ25" s="91"/>
-      <c r="AR25" s="91"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="91"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="92"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="73"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="83" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="80" t="s">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="87" t="s">
+      <c r="S26" s="77"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="83" t="s">
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="83" t="s">
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="84"/>
-      <c r="AK26" s="84"/>
-      <c r="AL26" s="84"/>
-      <c r="AM26" s="84"/>
-      <c r="AN26" s="84"/>
-      <c r="AO26" s="90" t="s">
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="92"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="73"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="83" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="80" t="s">
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S27" s="85"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="87" t="s">
+      <c r="S27" s="77"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="83" t="s">
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="83" t="s">
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="84"/>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="84"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="84"/>
-      <c r="AO27" s="90" t="s">
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AP27" s="91"/>
-      <c r="AQ27" s="91"/>
-      <c r="AR27" s="91"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91"/>
-      <c r="AV27" s="91"/>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="92"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="73"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="83" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="80" t="s">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S28" s="85"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="87" t="s">
+      <c r="S28" s="77"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="83" t="s">
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="83" t="s">
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="84"/>
-      <c r="AM28" s="84"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="90" t="s">
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="91"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="92"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="73"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="83" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="80" t="s">
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S29" s="85"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="87" t="s">
+      <c r="S29" s="77"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="83" t="s">
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="83" t="s">
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="84"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="84"/>
-      <c r="AO29" s="90" t="s">
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AP29" s="91"/>
-      <c r="AQ29" s="91"/>
-      <c r="AR29" s="91"/>
-      <c r="AS29" s="91"/>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="92"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="73"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
-      <c r="AK30" s="84"/>
-      <c r="AL30" s="84"/>
-      <c r="AM30" s="84"/>
-      <c r="AN30" s="84"/>
-      <c r="AO30" s="90"/>
-      <c r="AP30" s="91"/>
-      <c r="AQ30" s="91"/>
-      <c r="AR30" s="91"/>
-      <c r="AS30" s="91"/>
-      <c r="AT30" s="91"/>
-      <c r="AU30" s="91"/>
-      <c r="AV30" s="91"/>
-      <c r="AW30" s="91"/>
-      <c r="AX30" s="91"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="92"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="73"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="84"/>
-      <c r="AK31" s="84"/>
-      <c r="AL31" s="84"/>
-      <c r="AM31" s="84"/>
-      <c r="AN31" s="84"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="91"/>
-      <c r="AQ31" s="91"/>
-      <c r="AR31" s="91"/>
-      <c r="AS31" s="91"/>
-      <c r="AT31" s="91"/>
-      <c r="AU31" s="91"/>
-      <c r="AV31" s="91"/>
-      <c r="AW31" s="91"/>
-      <c r="AX31" s="91"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="92"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="73"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="83"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="84"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="84"/>
-      <c r="AM32" s="84"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="90"/>
-      <c r="AP32" s="91"/>
-      <c r="AQ32" s="91"/>
-      <c r="AR32" s="91"/>
-      <c r="AS32" s="91"/>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="91"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="91"/>
-      <c r="AX32" s="91"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="92"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="73"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="83"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="84"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="84"/>
-      <c r="AO33" s="90"/>
-      <c r="AP33" s="91"/>
-      <c r="AQ33" s="91"/>
-      <c r="AR33" s="91"/>
-      <c r="AS33" s="91"/>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="91"/>
-      <c r="AV33" s="91"/>
-      <c r="AW33" s="91"/>
-      <c r="AX33" s="91"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="73"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="83"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="84"/>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="84"/>
-      <c r="AO34" s="90"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="91"/>
-      <c r="AR34" s="91"/>
-      <c r="AS34" s="91"/>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="91"/>
-      <c r="AW34" s="91"/>
-      <c r="AX34" s="91"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="73"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="84"/>
-      <c r="AJ35" s="84"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
-      <c r="AM35" s="84"/>
-      <c r="AN35" s="84"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="91"/>
-      <c r="AQ35" s="91"/>
-      <c r="AR35" s="91"/>
-      <c r="AS35" s="91"/>
-      <c r="AT35" s="91"/>
-      <c r="AU35" s="91"/>
-      <c r="AV35" s="91"/>
-      <c r="AW35" s="91"/>
-      <c r="AX35" s="91"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="92"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="73"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="83"/>
-      <c r="AH36" s="84"/>
-      <c r="AI36" s="84"/>
-      <c r="AJ36" s="84"/>
-      <c r="AK36" s="84"/>
-      <c r="AL36" s="84"/>
-      <c r="AM36" s="84"/>
-      <c r="AN36" s="84"/>
-      <c r="AO36" s="90"/>
-      <c r="AP36" s="91"/>
-      <c r="AQ36" s="91"/>
-      <c r="AR36" s="91"/>
-      <c r="AS36" s="91"/>
-      <c r="AT36" s="91"/>
-      <c r="AU36" s="91"/>
-      <c r="AV36" s="91"/>
-      <c r="AW36" s="91"/>
-      <c r="AX36" s="91"/>
-      <c r="AY36" s="91"/>
-      <c r="AZ36" s="92"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="75"/>
+      <c r="AM36" s="75"/>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="72"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="72"/>
+      <c r="AV36" s="72"/>
+      <c r="AW36" s="72"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
@@ -10973,39 +10865,160 @@
     <mergeCell ref="J12:Q12"/>
     <mergeCell ref="R12:T12"/>
     <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="166">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -970,10 +970,6 @@
     <rPh sb="0" eb="2">
       <t>コテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コードマスターより</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1334,6 +1330,30 @@
   </si>
   <si>
     <t>yyyyMM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コードマスターよりセット
+エンタ="N"になる条件の場合は"0"</t>
+    <rPh sb="23" eb="25">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この場合、精算手数料は"0"とする。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テスウリョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1785,6 +1805,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1830,33 +1902,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1866,30 +1911,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1899,14 +1954,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1924,6 +1971,15 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,42 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2969,196 +2989,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -3170,66 +3190,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -4797,16 +4817,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4823,6 +4833,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4848,196 +4868,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5049,66 +5069,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6665,16 +6685,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6691,6 +6701,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6704,10 +6724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ42"/>
+  <dimension ref="A1:AZ43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -6716,196 +6736,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50">
+        <v>41838</v>
+      </c>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6917,66 +6941,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -7272,7 +7296,7 @@
         <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -7308,7 +7332,7 @@
         <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -7466,10 +7490,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -7512,7 +7536,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="2"/>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -7559,7 +7583,7 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="AB21" s="2"/>
@@ -7604,7 +7628,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AC22" s="2"/>
@@ -7691,10 +7715,10 @@
       <c r="K24" s="1"/>
       <c r="L24" s="2"/>
       <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" t="s">
         <v>138</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>139</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="AB24" s="2"/>
@@ -7737,7 +7761,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
       <c r="Q25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -7784,10 +7808,10 @@
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -7834,10 +7858,10 @@
       <c r="L27" s="2"/>
       <c r="N27" s="11"/>
       <c r="Q27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -7882,8 +7906,9 @@
       <c r="L28" s="2"/>
       <c r="N28" s="11"/>
       <c r="R28" t="s">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="T28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -7927,8 +7952,11 @@
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
       <c r="N29" s="11"/>
+      <c r="Q29" t="s">
+        <v>157</v>
+      </c>
       <c r="R29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -7973,11 +8001,8 @@
       <c r="L30" s="2"/>
       <c r="M30" s="4"/>
       <c r="N30" s="11"/>
-      <c r="Q30" t="s">
-        <v>158</v>
-      </c>
       <c r="R30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
@@ -8022,7 +8047,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
       <c r="R31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -8067,10 +8092,10 @@
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="Q32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -8119,9 +8144,8 @@
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
       <c r="R33" t="s">
-        <v>147</v>
-      </c>
-      <c r="T33" s="2"/>
+        <v>144</v>
+      </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -8168,15 +8192,9 @@
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
       <c r="L34" s="2"/>
-      <c r="P34" t="s">
-        <v>161</v>
-      </c>
       <c r="R34" t="s">
-        <v>162</v>
-      </c>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
+        <v>165</v>
+      </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -8221,8 +8239,11 @@
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
+      <c r="P35" t="s">
+        <v>160</v>
+      </c>
       <c r="R35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -8271,6 +8292,9 @@
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="2"/>
+      <c r="R36" t="s">
+        <v>156</v>
+      </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -8317,13 +8341,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="4"/>
-      <c r="O37" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>156</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -8370,9 +8388,12 @@
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="O38" t="s">
+        <v>154</v>
+      </c>
       <c r="Q38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -8421,6 +8442,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="1"/>
       <c r="L39" s="2"/>
+      <c r="Q39" t="s">
+        <v>156</v>
+      </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -8468,15 +8492,6 @@
       <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -8524,10 +8539,10 @@
       <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" t="s">
-        <v>131</v>
+      <c r="O41" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -8568,61 +8583,127 @@
       <c r="AZ41" s="3"/>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="7"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="6"/>
-      <c r="AS42" s="6"/>
-      <c r="AT42" s="6"/>
-      <c r="AU42" s="6"/>
-      <c r="AV42" s="6"/>
-      <c r="AW42" s="6"/>
-      <c r="AX42" s="6"/>
-      <c r="AY42" s="6"/>
-      <c r="AZ42" s="7"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="3"/>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="6"/>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="6"/>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8639,16 +8720,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8664,8 +8735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AO26" sqref="AO26:AZ26"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8675,196 +8746,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50">
+        <v>41838</v>
+      </c>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8885,72 +8960,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="99" t="s">
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="96" t="s">
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="97"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="102" t="s">
+      <c r="W8" s="72"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="96" t="s">
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="102" t="s">
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="104"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="79"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
@@ -9083,1731 +9158,1918 @@
         <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="74" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="79" t="s">
+      <c r="S11" s="86"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="74" t="s">
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="74" t="s">
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="76" t="s">
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="81"/>
+      <c r="AM11" s="81"/>
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
-      <c r="AS11" s="94"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="94"/>
-      <c r="AZ11" s="95"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="93"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="74" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76" t="s">
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="74" t="s">
+      <c r="S12" s="86"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="74" t="s">
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="73"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="84"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="74" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="76" t="s">
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="79" t="s">
+      <c r="S13" s="86"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="74" t="s">
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="74" t="s">
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="73"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="84"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="74" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76" t="s">
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79" t="s">
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="74" t="s">
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="74" t="s">
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="73"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="84"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="74" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="76" t="s">
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="77"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="79" t="s">
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="74" t="s">
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="74" t="s">
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="73"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="81"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="81"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="84"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="74" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76" t="s">
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="77"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="79" t="s">
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="74" t="s">
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="74" t="s">
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="73"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="84"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="74" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76" t="s">
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="79" t="s">
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="74" t="s">
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="74" t="s">
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="73"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="84"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="74" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76" t="s">
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="79" t="s">
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="74" t="s">
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="74" t="s">
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="73"/>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="81"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="84"/>
+    </row>
+    <row r="19" spans="1:52" ht="42" customHeight="1">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="74" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76" t="s">
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="S19" s="77"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="79" t="s">
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="74" t="s">
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="74" t="s">
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="73"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="83"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="83"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="83"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="84"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="74" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76" t="s">
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="79" t="s">
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="74" t="s">
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="74" t="s">
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="71" t="s">
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="73"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="84"/>
     </row>
     <row r="21" spans="1:52" ht="72.75" customHeight="1">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="85" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87" t="s">
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90" t="s">
+      <c r="S21" s="100"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="85" t="s">
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="85" t="s">
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="84"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="96"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="74" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76" t="s">
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="77"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="79" t="s">
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="74" t="s">
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="74" t="s">
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="73"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
+      <c r="AR22" s="83"/>
+      <c r="AS22" s="83"/>
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="83"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="83"/>
+      <c r="AX22" s="83"/>
+      <c r="AY22" s="83"/>
+      <c r="AZ22" s="84"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="74" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S23" s="77"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="79" t="s">
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="74" t="s">
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="74" t="s">
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="71" t="s">
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="73"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="83"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="84"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="74" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76" t="s">
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="77"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79" t="s">
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="74" t="s">
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="74" t="s">
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="75"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="72"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="73"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="81"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="83"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="84"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="74" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76" t="s">
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="79" t="s">
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="74" t="s">
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="81"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="81"/>
+      <c r="AO25" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="73"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="84"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="74" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76" t="s">
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S26" s="77"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="79" t="s">
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="74" t="s">
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="74" t="s">
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="71" t="s">
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="72"/>
-      <c r="AZ26" s="73"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="83"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="84"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="74" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="76" t="s">
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S27" s="77"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="79" t="s">
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="74" t="s">
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="74" t="s">
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="75"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="71" t="s">
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="81"/>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="81"/>
+      <c r="AO27" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="73"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="83"/>
+      <c r="AS27" s="83"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="83"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="84"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="74" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76" t="s">
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S28" s="77"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="79" t="s">
+      <c r="S28" s="86"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="74" t="s">
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="74" t="s">
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="71" t="s">
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="81"/>
+      <c r="AO28" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="72"/>
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
-      <c r="AZ28" s="73"/>
+      <c r="AP28" s="83"/>
+      <c r="AQ28" s="83"/>
+      <c r="AR28" s="83"/>
+      <c r="AS28" s="83"/>
+      <c r="AT28" s="83"/>
+      <c r="AU28" s="83"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="83"/>
+      <c r="AY28" s="83"/>
+      <c r="AZ28" s="84"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="74" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="76" t="s">
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S29" s="77"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="79" t="s">
+      <c r="S29" s="86"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="74" t="s">
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="74" t="s">
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="71" t="s">
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="72"/>
-      <c r="AR29" s="72"/>
-      <c r="AS29" s="72"/>
-      <c r="AT29" s="72"/>
-      <c r="AU29" s="72"/>
-      <c r="AV29" s="72"/>
-      <c r="AW29" s="72"/>
-      <c r="AX29" s="72"/>
-      <c r="AY29" s="72"/>
-      <c r="AZ29" s="73"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="84"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
-      <c r="AR30" s="72"/>
-      <c r="AS30" s="72"/>
-      <c r="AT30" s="72"/>
-      <c r="AU30" s="72"/>
-      <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="AY30" s="72"/>
-      <c r="AZ30" s="73"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="83"/>
+      <c r="AQ30" s="83"/>
+      <c r="AR30" s="83"/>
+      <c r="AS30" s="83"/>
+      <c r="AT30" s="83"/>
+      <c r="AU30" s="83"/>
+      <c r="AV30" s="83"/>
+      <c r="AW30" s="83"/>
+      <c r="AX30" s="83"/>
+      <c r="AY30" s="83"/>
+      <c r="AZ30" s="84"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="71"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
-      <c r="AR31" s="72"/>
-      <c r="AS31" s="72"/>
-      <c r="AT31" s="72"/>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
-      <c r="AY31" s="72"/>
-      <c r="AZ31" s="73"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="83"/>
+      <c r="AQ31" s="83"/>
+      <c r="AR31" s="83"/>
+      <c r="AS31" s="83"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="83"/>
+      <c r="AV31" s="83"/>
+      <c r="AW31" s="83"/>
+      <c r="AX31" s="83"/>
+      <c r="AY31" s="83"/>
+      <c r="AZ31" s="84"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="71"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="72"/>
-      <c r="AS32" s="72"/>
-      <c r="AT32" s="72"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="72"/>
-      <c r="AZ32" s="73"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="83"/>
+      <c r="AQ32" s="83"/>
+      <c r="AR32" s="83"/>
+      <c r="AS32" s="83"/>
+      <c r="AT32" s="83"/>
+      <c r="AU32" s="83"/>
+      <c r="AV32" s="83"/>
+      <c r="AW32" s="83"/>
+      <c r="AX32" s="83"/>
+      <c r="AY32" s="83"/>
+      <c r="AZ32" s="84"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="74"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="75"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="72"/>
-      <c r="AR33" s="72"/>
-      <c r="AS33" s="72"/>
-      <c r="AT33" s="72"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="72"/>
-      <c r="AY33" s="72"/>
-      <c r="AZ33" s="73"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="83"/>
+      <c r="AQ33" s="83"/>
+      <c r="AR33" s="83"/>
+      <c r="AS33" s="83"/>
+      <c r="AT33" s="83"/>
+      <c r="AU33" s="83"/>
+      <c r="AV33" s="83"/>
+      <c r="AW33" s="83"/>
+      <c r="AX33" s="83"/>
+      <c r="AY33" s="83"/>
+      <c r="AZ33" s="84"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="73"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="83"/>
+      <c r="AQ34" s="83"/>
+      <c r="AR34" s="83"/>
+      <c r="AS34" s="83"/>
+      <c r="AT34" s="83"/>
+      <c r="AU34" s="83"/>
+      <c r="AV34" s="83"/>
+      <c r="AW34" s="83"/>
+      <c r="AX34" s="83"/>
+      <c r="AY34" s="83"/>
+      <c r="AZ34" s="84"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
-      <c r="AZ35" s="73"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="81"/>
+      <c r="AD35" s="81"/>
+      <c r="AE35" s="81"/>
+      <c r="AF35" s="81"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="81"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="81"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="81"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="83"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="83"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="83"/>
+      <c r="AV35" s="83"/>
+      <c r="AW35" s="83"/>
+      <c r="AX35" s="83"/>
+      <c r="AY35" s="83"/>
+      <c r="AZ35" s="84"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="80"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="75"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="75"/>
-      <c r="AI36" s="75"/>
-      <c r="AJ36" s="75"/>
-      <c r="AK36" s="75"/>
-      <c r="AL36" s="75"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="72"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="72"/>
-      <c r="AS36" s="72"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="72"/>
-      <c r="AY36" s="72"/>
-      <c r="AZ36" s="73"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="81"/>
+      <c r="AN36" s="81"/>
+      <c r="AO36" s="82"/>
+      <c r="AP36" s="83"/>
+      <c r="AQ36" s="83"/>
+      <c r="AR36" s="83"/>
+      <c r="AS36" s="83"/>
+      <c r="AT36" s="83"/>
+      <c r="AU36" s="83"/>
+      <c r="AV36" s="83"/>
+      <c r="AW36" s="83"/>
+      <c r="AX36" s="83"/>
+      <c r="AY36" s="83"/>
+      <c r="AZ36" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
@@ -10832,193 +11094,6 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
-    <sheet name="IPO_2" sheetId="7" r:id="rId2"/>
-    <sheet name="IPO_3" sheetId="1" r:id="rId3"/>
-    <sheet name="出力項目一覧_1-a" sheetId="10" r:id="rId4"/>
+    <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
+    <sheet name="IPO_1" sheetId="6" r:id="rId2"/>
+    <sheet name="IPO_2" sheetId="7" r:id="rId3"/>
+    <sheet name="IPO_3" sheetId="1" r:id="rId4"/>
+    <sheet name="出力項目一覧_1-a" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">IPO_1!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IPO_2!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">IPO_3!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'出力項目一覧_1-a'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">IPO_1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">IPO_2!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">IPO_3!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'出力項目一覧_1-a'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">変更履歴!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="167">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -1353,6 +1355,13 @@
     </rPh>
     <rPh sb="7" eb="10">
       <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1805,58 +1814,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1902,6 +1859,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1911,31 +1895,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1945,15 +1936,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1971,15 +1953,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,6 +1989,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2690,6 +2699,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形吹き出し 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="5772150"/>
+          <a:ext cx="2533650" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91230"/>
+            <a:gd name="adj2" fmla="val -106952"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実績取込にて請求年月を設定しているのか確認する。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2014/10/17 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>高橋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -2980,7 +3062,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -2989,196 +3071,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64">
+        <v>41929</v>
+      </c>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -3190,66 +3276,62 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -3377,12 +3459,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="4"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="T11" s="2"/>
@@ -3483,12 +3560,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>33</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="N13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -4817,32 +4889,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
     <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4850,7 +4922,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4859,7 +4930,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -4868,196 +4939,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5069,66 +5140,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -5257,17 +5328,13 @@
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
       <c r="L11" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -5315,17 +5382,16 @@
       <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>29</v>
-      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -5367,13 +5433,13 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -5420,6 +5486,14 @@
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -5466,12 +5540,13 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>122</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -5518,9 +5593,21 @@
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="M16" t="s">
-        <v>45</v>
-      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -5556,11 +5643,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
-      <c r="M17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -5608,11 +5693,9 @@
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="N18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -5660,6 +5743,8 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -5706,12 +5791,8 @@
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
+      <c r="L20" s="4"/>
+      <c r="N20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -5758,16 +5839,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="L21" s="4"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -5809,13 +5886,9 @@
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
-      <c r="L22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-      <c r="S22" s="2"/>
+      <c r="L22" s="4"/>
+      <c r="N22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -5862,7 +5935,10 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1"/>
-      <c r="S23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -5909,13 +5985,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" t="s">
-        <v>39</v>
-      </c>
+      <c r="L24" s="2"/>
       <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -5967,12 +6039,14 @@
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
-      <c r="M25" t="s">
-        <v>40</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6018,10 +6092,14 @@
       <c r="J26" s="3"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
-      <c r="M26" t="s">
-        <v>126</v>
-      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6067,9 +6145,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
-      <c r="M27" t="s">
-        <v>41</v>
-      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -6118,9 +6198,11 @@
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
-      <c r="M28" t="s">
-        <v>42</v>
-      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -6685,6 +6767,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6701,16 +6793,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6724,10 +6806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ43"/>
+  <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -6736,200 +6818,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50">
-        <v>41838</v>
-      </c>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6941,66 +7019,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -7132,6 +7210,1878 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="3"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="3"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="3"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="3"/>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="3"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="3"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="M17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="3"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="3"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="3"/>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="3"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="3"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="3"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="3"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="3"/>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="3"/>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" t="s">
+        <v>126</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="3"/>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="3"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="3"/>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="3"/>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="3"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="3"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="3"/>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="3"/>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="4"/>
+      <c r="O34" s="12"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="3"/>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="3"/>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="3"/>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="3"/>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="15" max="15" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
+        <v>41627</v>
+      </c>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64">
+        <v>41838</v>
+      </c>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="10"/>
+    </row>
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="3"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
         <v>123</v>
       </c>
       <c r="N11" s="2"/>
@@ -8694,16 +10644,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8720,6 +10660,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8731,12 +10681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AO28" sqref="AO28:AZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8746,200 +10696,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41627</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64">
         <v>41838</v>
       </c>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40" t="s">
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8960,72 +10910,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="74" t="s">
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="71" t="s">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="72"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="77" t="s">
+      <c r="W8" s="97"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="71" t="s">
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="77" t="s">
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="79"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="104"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
@@ -9158,1885 +11108,1764 @@
         <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="80" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="85" t="s">
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="86"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="88" t="s">
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="80" t="s">
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="80" t="s">
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="85" t="s">
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="93"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="94"/>
+      <c r="AV11" s="94"/>
+      <c r="AW11" s="94"/>
+      <c r="AX11" s="94"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="95"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="85" t="s">
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="S12" s="86"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="80" t="s">
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="80" t="s">
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="81"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="81"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="84"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="73"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="80" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="85" t="s">
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="86"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="88" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="80" t="s">
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="80" t="s">
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="83"/>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="83"/>
-      <c r="AZ13" s="84"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="73"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="80" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="85" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="86"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="88" t="s">
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="80" t="s">
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="80" t="s">
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="81"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="81"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="84"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="73"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="80" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="85" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="86"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="88" t="s">
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="80" t="s">
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="80" t="s">
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="81"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="83"/>
-      <c r="AQ15" s="83"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="83"/>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="83"/>
-      <c r="AV15" s="83"/>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="83"/>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="84"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="73"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="80" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="85" t="s">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="86"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="88" t="s">
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="80" t="s">
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="80" t="s">
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="83"/>
-      <c r="AQ16" s="83"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="83"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="83"/>
-      <c r="AZ16" s="84"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="73"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="80" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="85" t="s">
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="S17" s="86"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="88" t="s">
+      <c r="S17" s="77"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="80" t="s">
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="80" t="s">
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="83"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="83"/>
-      <c r="AZ17" s="84"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="73"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="80" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="85" t="s">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="88" t="s">
+      <c r="S18" s="77"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="80" t="s">
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="80" t="s">
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="83"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="83"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="83"/>
-      <c r="AY18" s="83"/>
-      <c r="AZ18" s="84"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="73"/>
     </row>
     <row r="19" spans="1:52" ht="42" customHeight="1">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="80" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="85" t="s">
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="88" t="s">
+      <c r="S19" s="77"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="80" t="s">
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="80" t="s">
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="91" t="s">
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="AP19" s="83"/>
-      <c r="AQ19" s="83"/>
-      <c r="AR19" s="83"/>
-      <c r="AS19" s="83"/>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="83"/>
-      <c r="AV19" s="83"/>
-      <c r="AW19" s="83"/>
-      <c r="AX19" s="83"/>
-      <c r="AY19" s="83"/>
-      <c r="AZ19" s="84"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="73"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="80" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="85" t="s">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="S20" s="86"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="88" t="s">
+      <c r="S20" s="77"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="80" t="s">
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="80" t="s">
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="82" t="s">
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="83"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="83"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="83"/>
-      <c r="AZ20" s="84"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="73"/>
     </row>
     <row r="21" spans="1:52" ht="72.75" customHeight="1">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="97" t="s">
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="99" t="s">
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="100"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="102" t="s">
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="97" t="s">
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="97" t="s">
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="94" t="s">
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="96"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="83"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="84"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="80" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="85" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="86"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="88" t="s">
+      <c r="S22" s="77"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="80" t="s">
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="80" t="s">
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="83"/>
-      <c r="AT22" s="83"/>
-      <c r="AU22" s="83"/>
-      <c r="AV22" s="83"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="83"/>
-      <c r="AY22" s="83"/>
-      <c r="AZ22" s="84"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="73"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="80" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="85" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S23" s="86"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="88" t="s">
+      <c r="S23" s="77"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="80" t="s">
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="80" t="s">
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="82" t="s">
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="83"/>
-      <c r="AZ23" s="84"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="73"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="80" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="85" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="88" t="s">
+      <c r="S24" s="77"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="80" t="s">
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="80" t="s">
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="83"/>
-      <c r="AZ24" s="84"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="73"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="80" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="85" t="s">
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="88" t="s">
+      <c r="S25" s="77"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="80" t="s">
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="80" t="s">
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="81"/>
-      <c r="AJ25" s="81"/>
-      <c r="AK25" s="81"/>
-      <c r="AL25" s="81"/>
-      <c r="AM25" s="81"/>
-      <c r="AN25" s="81"/>
-      <c r="AO25" s="82" t="s">
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="AP25" s="83"/>
-      <c r="AQ25" s="83"/>
-      <c r="AR25" s="83"/>
-      <c r="AS25" s="83"/>
-      <c r="AT25" s="83"/>
-      <c r="AU25" s="83"/>
-      <c r="AV25" s="83"/>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="83"/>
-      <c r="AY25" s="83"/>
-      <c r="AZ25" s="84"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="73"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="80" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="85" t="s">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="88" t="s">
+      <c r="S26" s="77"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="80" t="s">
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="80" t="s">
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="82" t="s">
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="84"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="73"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="80" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="85" t="s">
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S27" s="86"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="88" t="s">
+      <c r="S27" s="77"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="80" t="s">
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="80" t="s">
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="81"/>
-      <c r="AL27" s="81"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="82" t="s">
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="84"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="73"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="80" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="85" t="s">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S28" s="86"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="88" t="s">
+      <c r="S28" s="77"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="80" t="s">
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="80" t="s">
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="81"/>
-      <c r="AO28" s="82" t="s">
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="84"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="73"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="80" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="85" t="s">
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="S29" s="86"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="88" t="s">
+      <c r="S29" s="77"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="80" t="s">
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="80" t="s">
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="81"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="82" t="s">
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="83"/>
-      <c r="AR29" s="83"/>
-      <c r="AS29" s="83"/>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="83"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="84"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="73"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="81"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="82"/>
-      <c r="AP30" s="83"/>
-      <c r="AQ30" s="83"/>
-      <c r="AR30" s="83"/>
-      <c r="AS30" s="83"/>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="83"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="84"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="73"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="83"/>
-      <c r="AQ31" s="83"/>
-      <c r="AR31" s="83"/>
-      <c r="AS31" s="83"/>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="83"/>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="83"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="84"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="73"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="80"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="81"/>
-      <c r="AF32" s="81"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="81"/>
-      <c r="AI32" s="81"/>
-      <c r="AJ32" s="81"/>
-      <c r="AK32" s="81"/>
-      <c r="AL32" s="81"/>
-      <c r="AM32" s="81"/>
-      <c r="AN32" s="81"/>
-      <c r="AO32" s="82"/>
-      <c r="AP32" s="83"/>
-      <c r="AQ32" s="83"/>
-      <c r="AR32" s="83"/>
-      <c r="AS32" s="83"/>
-      <c r="AT32" s="83"/>
-      <c r="AU32" s="83"/>
-      <c r="AV32" s="83"/>
-      <c r="AW32" s="83"/>
-      <c r="AX32" s="83"/>
-      <c r="AY32" s="83"/>
-      <c r="AZ32" s="84"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="73"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-      <c r="AF33" s="81"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81"/>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="81"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="81"/>
-      <c r="AO33" s="82"/>
-      <c r="AP33" s="83"/>
-      <c r="AQ33" s="83"/>
-      <c r="AR33" s="83"/>
-      <c r="AS33" s="83"/>
-      <c r="AT33" s="83"/>
-      <c r="AU33" s="83"/>
-      <c r="AV33" s="83"/>
-      <c r="AW33" s="83"/>
-      <c r="AX33" s="83"/>
-      <c r="AY33" s="83"/>
-      <c r="AZ33" s="84"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="73"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="81"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="81"/>
-      <c r="AL34" s="81"/>
-      <c r="AM34" s="81"/>
-      <c r="AN34" s="81"/>
-      <c r="AO34" s="82"/>
-      <c r="AP34" s="83"/>
-      <c r="AQ34" s="83"/>
-      <c r="AR34" s="83"/>
-      <c r="AS34" s="83"/>
-      <c r="AT34" s="83"/>
-      <c r="AU34" s="83"/>
-      <c r="AV34" s="83"/>
-      <c r="AW34" s="83"/>
-      <c r="AX34" s="83"/>
-      <c r="AY34" s="83"/>
-      <c r="AZ34" s="84"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="73"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="81"/>
-      <c r="AF35" s="81"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="81"/>
-      <c r="AI35" s="81"/>
-      <c r="AJ35" s="81"/>
-      <c r="AK35" s="81"/>
-      <c r="AL35" s="81"/>
-      <c r="AM35" s="81"/>
-      <c r="AN35" s="81"/>
-      <c r="AO35" s="82"/>
-      <c r="AP35" s="83"/>
-      <c r="AQ35" s="83"/>
-      <c r="AR35" s="83"/>
-      <c r="AS35" s="83"/>
-      <c r="AT35" s="83"/>
-      <c r="AU35" s="83"/>
-      <c r="AV35" s="83"/>
-      <c r="AW35" s="83"/>
-      <c r="AX35" s="83"/>
-      <c r="AY35" s="83"/>
-      <c r="AZ35" s="84"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="73"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="80"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="81"/>
-      <c r="AI36" s="81"/>
-      <c r="AJ36" s="81"/>
-      <c r="AK36" s="81"/>
-      <c r="AL36" s="81"/>
-      <c r="AM36" s="81"/>
-      <c r="AN36" s="81"/>
-      <c r="AO36" s="82"/>
-      <c r="AP36" s="83"/>
-      <c r="AQ36" s="83"/>
-      <c r="AR36" s="83"/>
-      <c r="AS36" s="83"/>
-      <c r="AT36" s="83"/>
-      <c r="AU36" s="83"/>
-      <c r="AV36" s="83"/>
-      <c r="AW36" s="83"/>
-      <c r="AX36" s="83"/>
-      <c r="AY36" s="83"/>
-      <c r="AZ36" s="84"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="75"/>
+      <c r="AM36" s="75"/>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="72"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="72"/>
+      <c r="AV36" s="72"/>
+      <c r="AW36" s="72"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
@@ -11061,39 +12890,160 @@
     <mergeCell ref="J12:Q12"/>
     <mergeCell ref="R12:T12"/>
     <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -11101,5 +13051,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(06_タクチケ実績データ取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -1365,12 +1365,49 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>システム年月日</t>
+    <rPh sb="4" eb="7">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYYMMDD 14/10/17 取込年月日を設定</t>
+    <rPh sb="18" eb="20">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2014/10/17   </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【取込日】にシステム日付(YYYYMMDD)を設定するように変更する</t>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1435,6 +1472,20 @@
     <font>
       <sz val="9"/>
       <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1696,7 +1747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1814,6 +1865,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,6 +1889,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1859,33 +1953,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1894,22 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1920,13 +1971,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1936,6 +2005,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1953,6 +2031,15 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,40 +2077,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2711,8 +2775,8 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2722,12 +2786,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6905625" y="5772150"/>
-          <a:ext cx="2533650" cy="800100"/>
+          <a:ext cx="2533650" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val -91230"/>
-            <a:gd name="adj2" fmla="val -106952"/>
+            <a:gd name="adj2" fmla="val -92666"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2753,7 +2817,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>実績取込にて請求年月を設定しているのか確認する。</a:t>
+            <a:t>実績取込にて請求年月を設定しているのか確認する。請求年月は清算処理「タクチケ実績データ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成」にて設定のはず。</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3061,8 +3133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -3071,200 +3143,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="69"/>
       <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="47">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="47">
         <v>41929</v>
       </c>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -3276,62 +3348,62 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="46"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -3459,9 +3531,14 @@
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
+      <c r="S11" t="s">
+        <v>170</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -4889,12 +4966,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="S7:Z7"/>
-    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -4905,16 +4976,22 @@
     <mergeCell ref="S3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4939,196 +5016,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="69"/>
       <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="47">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -5140,66 +5217,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="46"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6767,16 +6844,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6793,6 +6860,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6818,196 +6895,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="69"/>
       <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="47">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -7019,66 +7096,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="46"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -8635,16 +8712,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -8661,6 +8728,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -8686,200 +8763,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="69"/>
       <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="47">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="47">
         <v>41838</v>
       </c>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8891,66 +8968,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="46"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -10644,6 +10721,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -10660,16 +10747,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -10685,8 +10762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AO28" sqref="AO28:AZ28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -10696,200 +10773,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="67"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="69"/>
       <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
       <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="47">
         <v>41627</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="47">
         <v>41838</v>
       </c>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -10910,72 +10987,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="99" t="s">
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="96" t="s">
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="97"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="102" t="s">
+      <c r="W8" s="72"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="96" t="s">
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="102" t="s">
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="104"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="79"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
@@ -11108,1731 +11185,1918 @@
         <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="74" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="79" t="s">
+      <c r="S11" s="86"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="74" t="s">
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="74" t="s">
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="76" t="s">
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="81"/>
+      <c r="AM11" s="81"/>
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
-      <c r="AS11" s="94"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="94"/>
-      <c r="AZ11" s="95"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="93"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="74" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76" t="s">
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="74" t="s">
+      <c r="S12" s="86"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="74" t="s">
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="73"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="83"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="84"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="74" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="76" t="s">
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="79" t="s">
+      <c r="S13" s="86"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="74" t="s">
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="74" t="s">
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="73"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="81"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="83"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="84"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="74" t="s">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76" t="s">
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79" t="s">
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="74" t="s">
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="74" t="s">
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="73"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="83"/>
+      <c r="AV14" s="83"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="84"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="74" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="76" t="s">
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="77"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="79" t="s">
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="74" t="s">
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="74" t="s">
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="73"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="81"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="81"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="83"/>
+      <c r="AV15" s="83"/>
+      <c r="AW15" s="83"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="84"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="74" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76" t="s">
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="77"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="79" t="s">
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="74" t="s">
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="74" t="s">
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="73"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="83"/>
+      <c r="AY16" s="83"/>
+      <c r="AZ16" s="84"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="74" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76" t="s">
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="79" t="s">
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="74" t="s">
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="74" t="s">
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="73"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="83"/>
+      <c r="AR17" s="83"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="83"/>
+      <c r="AV17" s="83"/>
+      <c r="AW17" s="83"/>
+      <c r="AX17" s="83"/>
+      <c r="AY17" s="83"/>
+      <c r="AZ17" s="84"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="74" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76" t="s">
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="79" t="s">
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="74" t="s">
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="74" t="s">
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="73"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="81"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+      <c r="AZ18" s="84"/>
     </row>
     <row r="19" spans="1:52" ht="42" customHeight="1">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="74" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76" t="s">
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="S19" s="77"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="79" t="s">
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="74" t="s">
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="74" t="s">
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="93" t="s">
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="81"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="73"/>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="83"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="83"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="83"/>
+      <c r="AX19" s="83"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="84"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="74" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76" t="s">
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="79" t="s">
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="74" t="s">
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="74" t="s">
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="71" t="s">
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="73"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="84"/>
     </row>
     <row r="21" spans="1:52" ht="72.75" customHeight="1">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="85" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87" t="s">
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90" t="s">
+      <c r="S21" s="100"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="85" t="s">
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="85" t="s">
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="82" t="s">
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="AP21" s="83"/>
-      <c r="AQ21" s="83"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="84"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="96"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="74" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76" t="s">
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S22" s="77"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="79" t="s">
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="74" t="s">
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="74" t="s">
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="73"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
+      <c r="AR22" s="83"/>
+      <c r="AS22" s="83"/>
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="83"/>
+      <c r="AV22" s="83"/>
+      <c r="AW22" s="83"/>
+      <c r="AX22" s="83"/>
+      <c r="AY22" s="83"/>
+      <c r="AZ22" s="84"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="74" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76" t="s">
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S23" s="77"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="79" t="s">
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="74" t="s">
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="74" t="s">
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="81"/>
+      <c r="AE23" s="81"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="71" t="s">
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="81"/>
+      <c r="AO23" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="73"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="83"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="83"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="83"/>
+      <c r="AV23" s="83"/>
+      <c r="AW23" s="83"/>
+      <c r="AX23" s="83"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="84"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="74" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76" t="s">
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S24" s="77"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79" t="s">
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="75"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="72"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="73"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="105"/>
+      <c r="AM24" s="105"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="107"/>
+      <c r="AW24" s="107"/>
+      <c r="AX24" s="107"/>
+      <c r="AY24" s="107"/>
+      <c r="AZ24" s="108"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="74" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76" t="s">
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="79" t="s">
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="74" t="s">
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="74" t="s">
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="71" t="s">
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="81"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="81"/>
+      <c r="AO25" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="73"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="83"/>
+      <c r="AR25" s="83"/>
+      <c r="AS25" s="83"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="83"/>
+      <c r="AV25" s="83"/>
+      <c r="AW25" s="83"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="84"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="74" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76" t="s">
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S26" s="77"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="79" t="s">
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="74" t="s">
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="74" t="s">
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="71" t="s">
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="72"/>
-      <c r="AZ26" s="73"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="83"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="84"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="74" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="76" t="s">
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S27" s="77"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="79" t="s">
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="74" t="s">
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="74" t="s">
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="75"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="71" t="s">
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="81"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="81"/>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="81"/>
+      <c r="AO27" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="73"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="83"/>
+      <c r="AS27" s="83"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="83"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="84"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="74" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76" t="s">
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S28" s="77"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="79" t="s">
+      <c r="S28" s="86"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="74" t="s">
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="74" t="s">
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="71" t="s">
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="81"/>
+      <c r="AO28" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="72"/>
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
-      <c r="AZ28" s="73"/>
+      <c r="AP28" s="83"/>
+      <c r="AQ28" s="83"/>
+      <c r="AR28" s="83"/>
+      <c r="AS28" s="83"/>
+      <c r="AT28" s="83"/>
+      <c r="AU28" s="83"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="83"/>
+      <c r="AY28" s="83"/>
+      <c r="AZ28" s="84"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="74" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="76" t="s">
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="S29" s="77"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="79" t="s">
+      <c r="S29" s="86"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="74" t="s">
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="74" t="s">
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="71" t="s">
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="81"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="81"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="72"/>
-      <c r="AR29" s="72"/>
-      <c r="AS29" s="72"/>
-      <c r="AT29" s="72"/>
-      <c r="AU29" s="72"/>
-      <c r="AV29" s="72"/>
-      <c r="AW29" s="72"/>
-      <c r="AX29" s="72"/>
-      <c r="AY29" s="72"/>
-      <c r="AZ29" s="73"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="83"/>
+      <c r="AR29" s="83"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="83"/>
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83"/>
+      <c r="AY29" s="83"/>
+      <c r="AZ29" s="84"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
-      <c r="AR30" s="72"/>
-      <c r="AS30" s="72"/>
-      <c r="AT30" s="72"/>
-      <c r="AU30" s="72"/>
-      <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="AY30" s="72"/>
-      <c r="AZ30" s="73"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="83"/>
+      <c r="AQ30" s="83"/>
+      <c r="AR30" s="83"/>
+      <c r="AS30" s="83"/>
+      <c r="AT30" s="83"/>
+      <c r="AU30" s="83"/>
+      <c r="AV30" s="83"/>
+      <c r="AW30" s="83"/>
+      <c r="AX30" s="83"/>
+      <c r="AY30" s="83"/>
+      <c r="AZ30" s="84"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="71"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
-      <c r="AR31" s="72"/>
-      <c r="AS31" s="72"/>
-      <c r="AT31" s="72"/>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
-      <c r="AY31" s="72"/>
-      <c r="AZ31" s="73"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="83"/>
+      <c r="AQ31" s="83"/>
+      <c r="AR31" s="83"/>
+      <c r="AS31" s="83"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="83"/>
+      <c r="AV31" s="83"/>
+      <c r="AW31" s="83"/>
+      <c r="AX31" s="83"/>
+      <c r="AY31" s="83"/>
+      <c r="AZ31" s="84"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="71"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="72"/>
-      <c r="AS32" s="72"/>
-      <c r="AT32" s="72"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="72"/>
-      <c r="AZ32" s="73"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="83"/>
+      <c r="AQ32" s="83"/>
+      <c r="AR32" s="83"/>
+      <c r="AS32" s="83"/>
+      <c r="AT32" s="83"/>
+      <c r="AU32" s="83"/>
+      <c r="AV32" s="83"/>
+      <c r="AW32" s="83"/>
+      <c r="AX32" s="83"/>
+      <c r="AY32" s="83"/>
+      <c r="AZ32" s="84"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="74"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="75"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="72"/>
-      <c r="AR33" s="72"/>
-      <c r="AS33" s="72"/>
-      <c r="AT33" s="72"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="72"/>
-      <c r="AY33" s="72"/>
-      <c r="AZ33" s="73"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="80"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="83"/>
+      <c r="AQ33" s="83"/>
+      <c r="AR33" s="83"/>
+      <c r="AS33" s="83"/>
+      <c r="AT33" s="83"/>
+      <c r="AU33" s="83"/>
+      <c r="AV33" s="83"/>
+      <c r="AW33" s="83"/>
+      <c r="AX33" s="83"/>
+      <c r="AY33" s="83"/>
+      <c r="AZ33" s="84"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="73"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="83"/>
+      <c r="AQ34" s="83"/>
+      <c r="AR34" s="83"/>
+      <c r="AS34" s="83"/>
+      <c r="AT34" s="83"/>
+      <c r="AU34" s="83"/>
+      <c r="AV34" s="83"/>
+      <c r="AW34" s="83"/>
+      <c r="AX34" s="83"/>
+      <c r="AY34" s="83"/>
+      <c r="AZ34" s="84"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
-      <c r="AZ35" s="73"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="81"/>
+      <c r="AD35" s="81"/>
+      <c r="AE35" s="81"/>
+      <c r="AF35" s="81"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="81"/>
+      <c r="AJ35" s="81"/>
+      <c r="AK35" s="81"/>
+      <c r="AL35" s="81"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="81"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="83"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="83"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="83"/>
+      <c r="AV35" s="83"/>
+      <c r="AW35" s="83"/>
+      <c r="AX35" s="83"/>
+      <c r="AY35" s="83"/>
+      <c r="AZ35" s="84"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="80"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="75"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="75"/>
-      <c r="AI36" s="75"/>
-      <c r="AJ36" s="75"/>
-      <c r="AK36" s="75"/>
-      <c r="AL36" s="75"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="72"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="72"/>
-      <c r="AS36" s="72"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="72"/>
-      <c r="AY36" s="72"/>
-      <c r="AZ36" s="73"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="81"/>
+      <c r="AN36" s="81"/>
+      <c r="AO36" s="82"/>
+      <c r="AP36" s="83"/>
+      <c r="AQ36" s="83"/>
+      <c r="AR36" s="83"/>
+      <c r="AS36" s="83"/>
+      <c r="AT36" s="83"/>
+      <c r="AU36" s="83"/>
+      <c r="AV36" s="83"/>
+      <c r="AW36" s="83"/>
+      <c r="AX36" s="83"/>
+      <c r="AY36" s="83"/>
+      <c r="AZ36" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
@@ -12857,193 +13121,6 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
